--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/A/20/seed4/result_data_RandomForest.xlsx
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.92109999999999</v>
+        <v>-21.9213</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.2962</v>
+        <v>-22.14900000000001</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.53129999999999</v>
+        <v>-21.59359999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.32480000000001</v>
+        <v>-22.22370000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.16379999999998</v>
+        <v>-21.03339999999998</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-20.97159999999997</v>
+        <v>-21.01259999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.54209999999998</v>
+        <v>-21.68009999999999</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.87999999999998</v>
+        <v>-20.79129999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-20.83729999999998</v>
+        <v>-20.99569999999999</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.15769999999999</v>
+        <v>-21.0463</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.53189999999999</v>
+        <v>-21.52959999999999</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.4019</v>
+        <v>-22.3012</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.2092</v>
+        <v>-22.25360000000001</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.66599999999999</v>
+        <v>-21.67099999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.79169999999999</v>
+        <v>-19.61219999999998</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.82849999999998</v>
+        <v>-19.67819999999998</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.15830000000001</v>
+        <v>-22.17670000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.9298</v>
+        <v>-21.98520000000001</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.88289999999998</v>
+        <v>-20.72019999999997</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.91140000000002</v>
+        <v>-22.00350000000001</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
